--- a/tests/data/t1_eda_summary_test.xlsx
+++ b/tests/data/t1_eda_summary_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EDA" sheetId="1" r:id="rId1"/>
@@ -1849,7 +1849,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$101" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$101" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,7 +1893,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$I$111" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$I$111" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9115,7 +9115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12309,10 +12309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K40" sqref="A27:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -12937,6 +12937,24 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I111" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
